--- a/biology/Botanique/Anisoptera_(végétal)/Anisoptera_(végétal).xlsx
+++ b/biology/Botanique/Anisoptera_(végétal)/Anisoptera_(végétal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anisoptera_(v%C3%A9g%C3%A9tal)</t>
+          <t>Anisoptera_(végétal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anisoptera est un genre d'arbres de la famille des Dipterocarpaceae. Son nom dérive du grec (anisos = « inégal » et pteron = « aile ») et fait référence aux lobes inégaux des fruits. Ses espèces sont réparties de Chittagong (au Bangladesh) jusqu'en Nouvelle-Guinée. Huit de ses espèces sont actuellement inscrites sur la liste rouge de l'UICN. Quatre de ces espèces sont considérées comme en danger critique et les quatre autres en voie de disparition. La principale menace est la perte de son habitat. Son bois est dur et léger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anisoptera_(v%C3%A9g%C3%A9tal)</t>
+          <t>Anisoptera_(végétal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anisoptera aurea Foxw.
 Anisoptera costata
